--- a/3. Resultados/04. resultados DIC 16 al DIC 24/Ines Torres.xlsx
+++ b/3. Resultados/04. resultados DIC 16 al DIC 24/Ines Torres.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Part_profesional</t>
   </si>
   <si>
-    <t xml:space="preserve">30/12/2024</t>
+    <t xml:space="preserve">24/12/2024</t>
   </si>
   <si>
     <t xml:space="preserve">Apoyo - Dias 13</t>
